--- a/src/testCase/c_useCase_file/Fiberbook/刚度约束设计响应/扭转角约束设计响应.xlsx
+++ b/src/testCase/c_useCase_file/Fiberbook/刚度约束设计响应/扭转角约束设计响应.xlsx
@@ -336,7 +336,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="75">
   <si>
     <t>预期结果文本信息</t>
   </si>
@@ -399,66 +399,150 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button3</t>
+  </si>
+  <si>
+    <t>方式一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示弹窗；信息窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 整个被测模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>约束方向下拉框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出到include文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮--弹窗套件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作控件后等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件类型一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>选择结构单元</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button3</t>
-  </si>
-  <si>
-    <t>方式一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示弹窗；信息窗口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 整个被测模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>位移约束下限复选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>位移约束下限文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>位移约束上限复选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>位移约束上限文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>约束方向下拉框</t>
+    <t>套件参数一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件类型二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件参数二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -466,191 +550,82 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>创建按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>复选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>复选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮--弹窗套件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckBox1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckBox2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit2</t>
+    <t>所有的控件操作一遍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角度约束下限复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角度约束下限文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角度约束上限复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角度约束上限文本框</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ComboBox</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择结构单元][Button</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>方式一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>方式一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>方式二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作控件后等待时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>套件类型一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择结构单元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>套件参数一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>套件类型二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>套件参数二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>位移约束下限复选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>位移约束下限文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>位移约束上限复选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>位移约束上限文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择结构单元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出到include文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wyyssjxy001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有的控件操作一遍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化-&gt;优化设置-&gt;刚度约束设计响应-&gt;位移设计响应</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同名Include文件displacement_constrain已存在。是否继续?；开始创建应变耦合DRESP3…应变耦合DRESP3创建成功!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>位移设计响应</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>位移设计响应</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刚度约束设计响应--位移设计响应</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>勾选</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y向</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择结构单元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>displacement_constrain</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认</t>
+  </si>
+  <si>
+    <t>选择节点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择节点][Button</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择全部的节点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>torsionangle_constrain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同名Include文件torsionangle_constrain已存在。是否继续?；开始创建应变耦合DRESP3…应变耦合DRESP3创建成功!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扭转角约束设计响应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扭转角约束设计响应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化-&gt;优化设置-&gt;刚度约束设计响应-&gt;扭转角约束设计响应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nzjys001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚度约束设计响应--扭转角约束设计响应</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1110,7 +1085,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1122,31 +1097,31 @@
     <row r="1" spans="1:10" s="2" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1154,31 +1129,31 @@
         <v>7</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1186,31 +1161,31 @@
         <v>10</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="I3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1218,31 +1193,31 @@
         <v>11</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1250,36 +1225,36 @@
         <v>8</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B6" s="12">
         <v>0</v>
@@ -1311,130 +1286,130 @@
     </row>
     <row r="7" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1455,7 +1430,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:R1048576"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="51.6" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1476,7 +1451,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>13</v>
@@ -1509,28 +1484,28 @@
         <v>15</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>9</v>
@@ -1538,31 +1513,31 @@
     </row>
     <row r="2" spans="1:21" s="17" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="E2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="I2" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="J2" s="15">
         <v>1</v>
@@ -1572,31 +1547,31 @@
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="11" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="N2" s="11">
-        <v>0.2</v>
+        <v>-40</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="P2" s="13">
         <v>40</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
